--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560353/JX560353_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560353/JX560353_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89330592711</v>
+        <v>45441.83356239444</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1886_1890instcga']</t>
+          <t>['1804_1926del', '1812_1908del', '1799_1899insctgcgcttagatcccgttcaaccgcatgactcgctcgagctcagacgagcagcaatcgacgaaggcgattcggttgaatgaaccgaatcctaaacggtaa', '1971_2011del', '1798_1813insttgagggacgagtaa']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89330595605</v>
+        <v>45441.83356242338</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['620_621del']</t>
+          <t>['646_667del', '678_696del', '681_781del', '628_774del', '670_755del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.8933059792</v>
+        <v>45441.83356244652</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['4029t&gt;c']</t>
+          <t>['4090_4205del', '4063_4072del', '4041_4051insgaccgtcttt', '4032_4156del', '4114_4216del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89330600814</v>
+        <v>45441.83356257119</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1885t&gt;g']</t>
+          <t>['1869_1916insctgattggcgacgcttcacaaacatcttaacgtactaagttacgaga', '1965_1991insggcacagcgtagcgcgctccggttgc', '1917_2025insgcaggattagggatcttcgtccgcgtgacaagatcccgtctgttttcaagagccggagatccagcaccggtcattcacttacgcttcgccgacatatggacaatcgct', '1822_1971del', '2004_2049del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['618_620del']</t>
+          <t>['668_717del', '641_742insctagagggggccccgtaagagcgaggtatgcctctgctaggataccgcagccatgcccactgatacatggttatcggcatgcctgataaaatcatacttca', '703_720insttgccttacgctattgt', '655_756del', '690_781inscgaattaggaggtgggttgattgagcatgcgcttctgagaaccgttggcatagtagcataaaatccggatggaccccatttcaaaacagag']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.8933060313</v>
+        <v>45441.83356260013</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['2020c&gt;a']</t>
+          <t>['1900_2000del', '1809_1829del', '1926_1935del', '2004_2051inscaatccctcaacggggccgtagagtccggaggtcgtgtaacgtagcc', '1857_1997del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['4082_4084del']</t>
+          <t>['4078_4163del', '4095_4197insggcataactcgcggtctaggatcacgttctcgaaatggcgtctgccgttcgttcctttctccgtgcttccctttaggatggaggttctgtagagcgtattcg', '4046_4163del', '4104_4113del', '4083_4152del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89330605444</v>
+        <v>45441.83356262327</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['603g&gt;a']</t>
+          <t>['672_703del', '618_699del', '636_700del', '677_819inscgttcggagtctctcatgtcgattcgccgagatctgaattcccgtagcaagctaatgcttgggtacacacccgagctaatctccagtgtctaagcgtttcgatgaaggtttgtgccaatttagggcctcaaatacactgctc', '669_760del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['4075_4076insg']</t>
+          <t>['4061_4190del', '4062_4171insacaaaaagcattgccaccacaaaccgatctaaacgattgcgtacatctgtactcccccgcctcatcaaagacaaccaaacccatgggttaaacatcggccagaagttga', '4118_4164instctacatgtggaccacgtttgatttaccggcggcgtgtccaggtcg', '4050_4100del', '4038_4120insttcctctgcctgtatggtgatgacttatgaggaatcggcaacactgtacgagtcccataggctgtgtagagggttcaaattg']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89330607188</v>
+        <v>45441.83356264643</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1940c&gt;g']</t>
+          <t>['2016_2097insaatttaagagatagagggcaaaggtggtttttctaatgttctcacaaccccccgagcaccaagcgacaattccacatcatg', '1981_2012del', '1788_1904instagcaacacatcaaagtaaaagaaacgtgtcctgcattgtccgcatgttgcttcggtgctgcatttggcagacacgggaacgacgtggaagtgttttccgaggatatcgcccgtgt', '1934_2053del', '1837_1904del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['686_689inscac']</t>
+          <t>['691_738insggacgtggacgctagttgcgatctgacttagcctaggaaactatatc', '620_656insagatcatagcgggtacctacacgtagggatttctcg', '649_765insggtcctttgcgcatgattcagagtctatcatcaatatggcgaacaagatgggaaaagtgacgtcccgccttccctactgagtatcaacttaactaattgagctcaagggcggtctt', '685_740del', '628_660del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['4062_4065del']</t>
+          <t>['4024_4093insatagacaaaggtcaagttagatggactggtacatagaggataaggcccttgatgagatttgcaggagat', '4094_4126del', '4031_4048inscttttcataattagctg', '4071_4087insagcgactcgtcagaat', '4072_4101del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89330609502</v>
+        <v>45441.83356266957</v>
       </c>
     </row>
   </sheetData>
